--- a/2015_DataProcessingAndRunout.xlsx
+++ b/2015_DataProcessingAndRunout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="54580" windowHeight="23920" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="620" yWindow="0" windowWidth="27120" windowHeight="26140" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="272">
   <si>
     <t>***supposed to be 50cm</t>
   </si>
@@ -817,6 +817,78 @@
   </si>
   <si>
     <t>barrier location (m), 3= no barrier</t>
+  </si>
+  <si>
+    <t>Belt length</t>
+  </si>
+  <si>
+    <t>Belt speed</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Oven temperature</t>
+  </si>
+  <si>
+    <t>Oven time</t>
+  </si>
+  <si>
+    <t>4 (3.35 cm/s)</t>
+  </si>
+  <si>
+    <t>20140818_01</t>
+  </si>
+  <si>
+    <t>20140818_03</t>
+  </si>
+  <si>
+    <t>20140818_04</t>
+  </si>
+  <si>
+    <t>20140819_02</t>
+  </si>
+  <si>
+    <t>20140819_03</t>
+  </si>
+  <si>
+    <t>20140819_04</t>
+  </si>
+  <si>
+    <t>20140821_03</t>
+  </si>
+  <si>
+    <t>20140821_04</t>
+  </si>
+  <si>
+    <t>20140821_05</t>
+  </si>
+  <si>
+    <t>20140821_07</t>
+  </si>
+  <si>
+    <t>20140822_02</t>
+  </si>
+  <si>
+    <t>20140822_03</t>
+  </si>
+  <si>
+    <t>20140822_04</t>
+  </si>
+  <si>
+    <t>20140822_05</t>
+  </si>
+  <si>
+    <t>barrier location 3 = no barrier</t>
+  </si>
+  <si>
+    <t>note that these locations have been transformed due to data processing so that the barriers are located at liftoff positions of 1.82 and 1</t>
+  </si>
+  <si>
+    <t>1.82.5</t>
+  </si>
+  <si>
+    <t>vertical barrier = 1</t>
   </si>
 </sst>
 </file>
@@ -918,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -926,8 +998,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="395">
+  <cellStyleXfs count="433">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1323,8 +1475,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1336,8 +1526,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="395">
+  <cellStyles count="433">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1535,6 +1737,25 @@
     <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1732,6 +1953,25 @@
     <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10376,10 +10616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y61"/>
+  <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10401,7 +10641,7 @@
     <col min="16" max="16" width="13" customWidth="1"/>
     <col min="17" max="17" width="11.83203125" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" customWidth="1"/>
+    <col min="19" max="19" width="45.1640625" customWidth="1"/>
     <col min="21" max="21" width="21.5" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" customWidth="1"/>
   </cols>
@@ -12577,12 +12817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -12610,9 +12850,12 @@
       <c r="I50" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
+      <c r="J50" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="21">
         <v>2015072201</v>
       </c>
       <c r="B51" s="10">
@@ -12639,9 +12882,12 @@
       <c r="I51" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="21">
         <v>2015072301</v>
       </c>
       <c r="B52" s="10">
@@ -12668,9 +12914,12 @@
       <c r="I52" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="21">
         <v>2015072302</v>
       </c>
       <c r="B53" s="10">
@@ -12697,9 +12946,12 @@
       <c r="I53" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="21">
         <v>2015072303</v>
       </c>
       <c r="B54" s="10">
@@ -12726,9 +12978,12 @@
       <c r="I54" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="21">
         <v>2015072304</v>
       </c>
       <c r="B55" s="10">
@@ -12755,9 +13010,12 @@
       <c r="I55" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="21">
         <v>2015072305</v>
       </c>
       <c r="B56" s="10">
@@ -12784,9 +13042,12 @@
       <c r="I56" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="21">
         <v>2015072306</v>
       </c>
       <c r="B57" s="10">
@@ -12813,9 +13074,12 @@
       <c r="I57" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="21">
         <v>2015072307</v>
       </c>
       <c r="B58" s="10">
@@ -12842,9 +13106,12 @@
       <c r="I58" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59">
+      <c r="J58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="21">
         <v>2015072401</v>
       </c>
       <c r="B59" s="10">
@@ -12871,9 +13138,12 @@
       <c r="I59" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60">
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="21">
         <v>2015072402</v>
       </c>
       <c r="B60" s="10">
@@ -12900,9 +13170,12 @@
       <c r="I60" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61">
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="21">
         <v>2015072403</v>
       </c>
       <c r="B61" s="10">
@@ -12928,6 +13201,1092 @@
       </c>
       <c r="I61" s="8">
         <v>1.75</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="22">
+        <v>2014081801</v>
+      </c>
+      <c r="B62" s="20">
+        <v>41.399999999999864</v>
+      </c>
+      <c r="C62" s="18">
+        <v>150</v>
+      </c>
+      <c r="D62" s="18">
+        <v>60</v>
+      </c>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I62" s="18">
+        <v>3</v>
+      </c>
+      <c r="J62" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="22">
+        <v>2014081803</v>
+      </c>
+      <c r="B63" s="20">
+        <v>38.100000000000023</v>
+      </c>
+      <c r="C63" s="18">
+        <v>200</v>
+      </c>
+      <c r="D63" s="18">
+        <v>60</v>
+      </c>
+      <c r="E63" s="18">
+        <v>0</v>
+      </c>
+      <c r="F63" s="18">
+        <v>0</v>
+      </c>
+      <c r="G63" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I63" s="18">
+        <v>3</v>
+      </c>
+      <c r="J63" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="22">
+        <v>2014081404</v>
+      </c>
+      <c r="B64" s="20">
+        <v>52.300000000000068</v>
+      </c>
+      <c r="C64" s="18">
+        <v>300</v>
+      </c>
+      <c r="D64" s="18">
+        <v>40</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H64" s="18">
+        <v>2.46</v>
+      </c>
+      <c r="I64" s="18">
+        <v>3</v>
+      </c>
+      <c r="J64" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="22">
+        <v>2014081902</v>
+      </c>
+      <c r="B65" s="20">
+        <v>33.200000000000159</v>
+      </c>
+      <c r="C65" s="18">
+        <v>200</v>
+      </c>
+      <c r="D65" s="18">
+        <v>70</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="H65" s="18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I65" s="18">
+        <v>3</v>
+      </c>
+      <c r="J65" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="22">
+        <v>2014081903</v>
+      </c>
+      <c r="B66" s="20">
+        <v>52.299999999999955</v>
+      </c>
+      <c r="C66" s="18">
+        <v>200</v>
+      </c>
+      <c r="D66" s="18">
+        <v>70</v>
+      </c>
+      <c r="E66" s="18">
+        <v>24</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0</v>
+      </c>
+      <c r="G66" s="18">
+        <v>3.72</v>
+      </c>
+      <c r="H66" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="I66" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="J66" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="22">
+        <v>2014081904</v>
+      </c>
+      <c r="B67" s="20">
+        <v>39</v>
+      </c>
+      <c r="C67" s="18">
+        <v>150</v>
+      </c>
+      <c r="D67" s="18">
+        <v>35</v>
+      </c>
+      <c r="E67" s="18">
+        <v>24</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="H67" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="I67" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="J67" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="22">
+        <v>2014082103</v>
+      </c>
+      <c r="B68" s="20">
+        <v>9.9000000000000909</v>
+      </c>
+      <c r="C68" s="18">
+        <v>150</v>
+      </c>
+      <c r="D68" s="18">
+        <v>35</v>
+      </c>
+      <c r="E68" s="18">
+        <v>24</v>
+      </c>
+      <c r="F68" s="18">
+        <v>0</v>
+      </c>
+      <c r="G68" s="18">
+        <v>3.54</v>
+      </c>
+      <c r="H68" s="18">
+        <v>1</v>
+      </c>
+      <c r="I68" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="J68" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="22">
+        <v>2014082104</v>
+      </c>
+      <c r="B69" s="20">
+        <v>57</v>
+      </c>
+      <c r="C69" s="18">
+        <v>200</v>
+      </c>
+      <c r="D69" s="18">
+        <v>45</v>
+      </c>
+      <c r="E69" s="18">
+        <v>24</v>
+      </c>
+      <c r="F69" s="18">
+        <v>0</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="J69" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="22">
+        <v>2014082105</v>
+      </c>
+      <c r="B70" s="20">
+        <v>39.600000000000023</v>
+      </c>
+      <c r="C70" s="18">
+        <v>200</v>
+      </c>
+      <c r="D70" s="18">
+        <v>35</v>
+      </c>
+      <c r="E70" s="18">
+        <v>24</v>
+      </c>
+      <c r="F70" s="18">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1</v>
+      </c>
+      <c r="I70" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="J70" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="22">
+        <v>2014082107</v>
+      </c>
+      <c r="B71" s="20">
+        <v>81.600000000000023</v>
+      </c>
+      <c r="C71" s="18">
+        <v>200</v>
+      </c>
+      <c r="D71" s="18">
+        <v>40</v>
+      </c>
+      <c r="E71" s="18">
+        <v>24</v>
+      </c>
+      <c r="F71" s="18">
+        <v>0</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="I71" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="J71" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="22">
+        <v>2014082202</v>
+      </c>
+      <c r="B72" s="20">
+        <v>82.800000000000068</v>
+      </c>
+      <c r="C72" s="18">
+        <v>200</v>
+      </c>
+      <c r="D72" s="18">
+        <v>40</v>
+      </c>
+      <c r="E72" s="18">
+        <v>5</v>
+      </c>
+      <c r="F72" s="18">
+        <v>0</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I72" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="J72" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="22">
+        <v>2014082203</v>
+      </c>
+      <c r="B73" s="20">
+        <v>43.199999999999932</v>
+      </c>
+      <c r="C73" s="18">
+        <v>250</v>
+      </c>
+      <c r="D73" s="18">
+        <v>40</v>
+      </c>
+      <c r="E73" s="18">
+        <v>5</v>
+      </c>
+      <c r="F73" s="18">
+        <v>0</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="J73" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="22">
+        <v>2014082204</v>
+      </c>
+      <c r="B74" s="20">
+        <v>56</v>
+      </c>
+      <c r="C74" s="18">
+        <v>250</v>
+      </c>
+      <c r="D74" s="18">
+        <v>55</v>
+      </c>
+      <c r="E74" s="18">
+        <v>24</v>
+      </c>
+      <c r="F74" s="18">
+        <v>0</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="H74" s="18">
+        <v>182.5</v>
+      </c>
+      <c r="I74" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="J74" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="22">
+        <v>2014082205</v>
+      </c>
+      <c r="B75" s="20">
+        <v>66.899999999999977</v>
+      </c>
+      <c r="C75" s="18">
+        <v>200</v>
+      </c>
+      <c r="D75" s="18">
+        <v>30</v>
+      </c>
+      <c r="E75" s="18">
+        <v>24</v>
+      </c>
+      <c r="F75" s="18">
+        <v>0</v>
+      </c>
+      <c r="G75" s="18">
+        <v>182.5</v>
+      </c>
+      <c r="H75" s="18">
+        <v>182.5</v>
+      </c>
+      <c r="I75" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="J75" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="16" thickBot="1">
+      <c r="A84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L86" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="M86" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B87" s="20">
+        <v>41.399999999999864</v>
+      </c>
+      <c r="C87" s="18">
+        <v>150</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="18">
+        <v>150</v>
+      </c>
+      <c r="F87" s="18">
+        <v>150</v>
+      </c>
+      <c r="G87" s="18">
+        <v>60</v>
+      </c>
+      <c r="H87" s="18">
+        <v>0</v>
+      </c>
+      <c r="I87" s="18">
+        <v>0</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K87" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L87" s="18">
+        <v>3</v>
+      </c>
+      <c r="M87" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="20">
+        <v>38.100000000000023</v>
+      </c>
+      <c r="C88" s="18">
+        <v>150</v>
+      </c>
+      <c r="D88" s="18">
+        <v>1</v>
+      </c>
+      <c r="E88" s="18">
+        <v>150</v>
+      </c>
+      <c r="F88" s="18">
+        <v>200</v>
+      </c>
+      <c r="G88" s="18">
+        <v>60</v>
+      </c>
+      <c r="H88" s="18">
+        <v>0</v>
+      </c>
+      <c r="I88" s="18">
+        <v>0</v>
+      </c>
+      <c r="J88" s="18">
+        <v>3.8</v>
+      </c>
+      <c r="K88" s="18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L88" s="18">
+        <v>3</v>
+      </c>
+      <c r="M88" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="20">
+        <v>52.300000000000068</v>
+      </c>
+      <c r="C89" s="18">
+        <v>150</v>
+      </c>
+      <c r="D89" s="18">
+        <v>1</v>
+      </c>
+      <c r="E89" s="18">
+        <v>150</v>
+      </c>
+      <c r="F89" s="18">
+        <v>300</v>
+      </c>
+      <c r="G89" s="18">
+        <v>40</v>
+      </c>
+      <c r="H89" s="18">
+        <v>0</v>
+      </c>
+      <c r="I89" s="18">
+        <v>0</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K89" s="18">
+        <v>2.46</v>
+      </c>
+      <c r="L89" s="18">
+        <v>3</v>
+      </c>
+      <c r="M89" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" s="20">
+        <v>33.200000000000159</v>
+      </c>
+      <c r="C90" s="18">
+        <v>150</v>
+      </c>
+      <c r="D90" s="18">
+        <v>1</v>
+      </c>
+      <c r="E90" s="18">
+        <v>150</v>
+      </c>
+      <c r="F90" s="18">
+        <v>200</v>
+      </c>
+      <c r="G90" s="18">
+        <v>70</v>
+      </c>
+      <c r="H90" s="18">
+        <v>0</v>
+      </c>
+      <c r="I90" s="18">
+        <v>0</v>
+      </c>
+      <c r="J90" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="K90" s="18">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L90" s="18">
+        <v>3</v>
+      </c>
+      <c r="M90" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91" s="20">
+        <v>52.299999999999955</v>
+      </c>
+      <c r="C91" s="18">
+        <v>150</v>
+      </c>
+      <c r="D91" s="18">
+        <v>1</v>
+      </c>
+      <c r="E91" s="18">
+        <v>150</v>
+      </c>
+      <c r="F91" s="18">
+        <v>200</v>
+      </c>
+      <c r="G91" s="18">
+        <v>70</v>
+      </c>
+      <c r="H91" s="18">
+        <v>24</v>
+      </c>
+      <c r="I91" s="18">
+        <v>0</v>
+      </c>
+      <c r="J91" s="18">
+        <v>3.72</v>
+      </c>
+      <c r="K91" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="L91" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="M91" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="20">
+        <v>39</v>
+      </c>
+      <c r="C92" s="18">
+        <v>150</v>
+      </c>
+      <c r="D92" s="18">
+        <v>1</v>
+      </c>
+      <c r="E92" s="18">
+        <v>150</v>
+      </c>
+      <c r="F92" s="18">
+        <v>150</v>
+      </c>
+      <c r="G92" s="18">
+        <v>35</v>
+      </c>
+      <c r="H92" s="18">
+        <v>24</v>
+      </c>
+      <c r="I92" s="18">
+        <v>0</v>
+      </c>
+      <c r="J92" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="K92" s="18">
+        <v>1.82</v>
+      </c>
+      <c r="L92" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="M92" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" s="20">
+        <v>9.9000000000000909</v>
+      </c>
+      <c r="C93" s="18">
+        <v>150</v>
+      </c>
+      <c r="D93" s="18">
+        <v>1</v>
+      </c>
+      <c r="E93" s="18">
+        <v>150</v>
+      </c>
+      <c r="F93" s="18">
+        <v>150</v>
+      </c>
+      <c r="G93" s="18">
+        <v>35</v>
+      </c>
+      <c r="H93" s="18">
+        <v>24</v>
+      </c>
+      <c r="I93" s="18">
+        <v>0</v>
+      </c>
+      <c r="J93" s="18">
+        <v>3.54</v>
+      </c>
+      <c r="K93" s="18">
+        <v>1</v>
+      </c>
+      <c r="L93" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="M93" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="20">
+        <v>57</v>
+      </c>
+      <c r="C94" s="18">
+        <v>150</v>
+      </c>
+      <c r="D94" s="18">
+        <v>1</v>
+      </c>
+      <c r="E94" s="18">
+        <v>150</v>
+      </c>
+      <c r="F94" s="18">
+        <v>200</v>
+      </c>
+      <c r="G94" s="18">
+        <v>45</v>
+      </c>
+      <c r="H94" s="18">
+        <v>24</v>
+      </c>
+      <c r="I94" s="18">
+        <v>0</v>
+      </c>
+      <c r="J94" s="18">
+        <v>1</v>
+      </c>
+      <c r="K94" s="18">
+        <v>1</v>
+      </c>
+      <c r="L94" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="M94" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="20">
+        <v>39.600000000000023</v>
+      </c>
+      <c r="C95" s="18">
+        <v>150</v>
+      </c>
+      <c r="D95" s="18">
+        <v>1</v>
+      </c>
+      <c r="E95" s="18">
+        <v>150</v>
+      </c>
+      <c r="F95" s="18">
+        <v>200</v>
+      </c>
+      <c r="G95" s="18">
+        <v>35</v>
+      </c>
+      <c r="H95" s="18">
+        <v>24</v>
+      </c>
+      <c r="I95" s="18">
+        <v>0</v>
+      </c>
+      <c r="J95" s="18">
+        <v>1</v>
+      </c>
+      <c r="K95" s="18">
+        <v>1</v>
+      </c>
+      <c r="L95" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="M95" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="20">
+        <v>81.600000000000023</v>
+      </c>
+      <c r="C96" s="18">
+        <v>150</v>
+      </c>
+      <c r="D96" s="18">
+        <v>1</v>
+      </c>
+      <c r="E96" s="18">
+        <v>150</v>
+      </c>
+      <c r="F96" s="18">
+        <v>200</v>
+      </c>
+      <c r="G96" s="18">
+        <v>40</v>
+      </c>
+      <c r="H96" s="18">
+        <v>24</v>
+      </c>
+      <c r="I96" s="18">
+        <v>0</v>
+      </c>
+      <c r="J96" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="K96" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="L96" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="M96" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="20">
+        <v>82.800000000000068</v>
+      </c>
+      <c r="C97" s="18">
+        <v>150</v>
+      </c>
+      <c r="D97" s="18">
+        <v>1</v>
+      </c>
+      <c r="E97" s="18">
+        <v>150</v>
+      </c>
+      <c r="F97" s="18">
+        <v>200</v>
+      </c>
+      <c r="G97" s="18">
+        <v>40</v>
+      </c>
+      <c r="H97" s="18">
+        <v>5</v>
+      </c>
+      <c r="I97" s="18">
+        <v>0</v>
+      </c>
+      <c r="J97" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L97" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="M97" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98" s="20">
+        <v>43.199999999999932</v>
+      </c>
+      <c r="C98" s="18">
+        <v>150</v>
+      </c>
+      <c r="D98" s="18">
+        <v>1</v>
+      </c>
+      <c r="E98" s="18">
+        <v>150</v>
+      </c>
+      <c r="F98" s="18">
+        <v>250</v>
+      </c>
+      <c r="G98" s="18">
+        <v>40</v>
+      </c>
+      <c r="H98" s="18">
+        <v>5</v>
+      </c>
+      <c r="I98" s="18">
+        <v>0</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="K98" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="L98" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="M98" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99" s="20">
+        <v>56</v>
+      </c>
+      <c r="C99" s="18">
+        <v>150</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E99" s="18">
+        <v>46</v>
+      </c>
+      <c r="F99" s="18">
+        <v>250</v>
+      </c>
+      <c r="G99" s="18">
+        <v>55</v>
+      </c>
+      <c r="H99" s="18">
+        <v>24</v>
+      </c>
+      <c r="I99" s="18">
+        <v>0</v>
+      </c>
+      <c r="J99" s="18">
+        <v>1.825</v>
+      </c>
+      <c r="K99" s="18">
+        <v>1.825</v>
+      </c>
+      <c r="L99" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="M99" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="20">
+        <v>66.899999999999977</v>
+      </c>
+      <c r="C100" s="18">
+        <v>150</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E100" s="18">
+        <v>46</v>
+      </c>
+      <c r="F100" s="18">
+        <v>200</v>
+      </c>
+      <c r="G100" s="18">
+        <v>30</v>
+      </c>
+      <c r="H100" s="18">
+        <v>24</v>
+      </c>
+      <c r="I100" s="18">
+        <v>0</v>
+      </c>
+      <c r="J100" s="18">
+        <v>1.825</v>
+      </c>
+      <c r="K100" s="18">
+        <v>1.825</v>
+      </c>
+      <c r="L100" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="M100" s="19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
